--- a/medicine/Enfance/Les_Lutins_(collection)/Les_Lutins_(collection).xlsx
+++ b/medicine/Enfance/Les_Lutins_(collection)/Les_Lutins_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lutins, anciennement Lutin poche, est une collection d'albums pour enfants au format de poche, aux éditions l'École des loisirs.
 </t>
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection existe depuis 1970. Elle est créée par Arthur Hubschmid, qui souhaite imiter les collections de livres d'images bon marché Rotfuchs en Allemagne (en créant la collection Renard poche), et Kinder-Taschen-Bücher en Suisse (avec Lutin poche)[1]. Renard poche et Lutin poche rééditent des classiques du livre d'images pour enfants, avec des auteurs comme Boutet de Monvel, Benjamin Rabier, Wilhelm Busch ou Heinrich Hoffmann[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection existe depuis 1970. Elle est créée par Arthur Hubschmid, qui souhaite imiter les collections de livres d'images bon marché Rotfuchs en Allemagne (en créant la collection Renard poche), et Kinder-Taschen-Bücher en Suisse (avec Lutin poche). Renard poche et Lutin poche rééditent des classiques du livre d'images pour enfants, avec des auteurs comme Boutet de Monvel, Benjamin Rabier, Wilhelm Busch ou Heinrich Hoffmann. 
 Lutin poche réédite aussi les albums publiés par le même éditeur dans les collections Pastel et Kaléidoscope.
 Depuis des décennies, cette collection a accueilli une grande partie des auteurs d'albums pour enfants.
-En 2016, la collection est renommée Les Lutins[2].
+En 2016, la collection est renommée Les Lutins.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Principaux artistes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Altan
